--- a/ORG_BASE.xlsx
+++ b/ORG_BASE.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F700DFB5-8814-422F-80D9-0880D96C2B8E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D10B6A5-D565-488E-9A81-FDC94577310C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="64">
   <si>
     <t>ORG_BASE_PK</t>
   </si>
@@ -203,6 +203,15 @@
   </si>
   <si>
     <t>ฐท.สส.</t>
+  </si>
+  <si>
+    <t>ORG_BASE_IDENOLD</t>
+  </si>
+  <si>
+    <t>ORG_BASE_IDENNEW</t>
+  </si>
+  <si>
+    <t>ORG_BASE_STATUS</t>
   </si>
 </sst>
 </file>
@@ -523,20 +532,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C58"/>
+  <dimension ref="A1:F58"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D53" sqref="D53"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.90625" customWidth="1"/>
-    <col min="2" max="3" width="31.1796875" customWidth="1"/>
-    <col min="4" max="11" width="23.90625" customWidth="1"/>
+    <col min="1" max="1" width="23.85546875" customWidth="1"/>
+    <col min="2" max="3" width="31.140625" customWidth="1"/>
+    <col min="4" max="11" width="23.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -546,8 +555,17 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D1" t="s">
+        <v>61</v>
+      </c>
+      <c r="E1" t="s">
+        <v>62</v>
+      </c>
+      <c r="F1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>26501</v>
       </c>
@@ -558,7 +576,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>26502</v>
       </c>
@@ -569,7 +587,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>26503</v>
       </c>
@@ -580,7 +598,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>26504</v>
       </c>
@@ -591,7 +609,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>26505</v>
       </c>
@@ -602,7 +620,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>26506</v>
       </c>
@@ -613,7 +631,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>26507</v>
       </c>
@@ -624,7 +642,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>26508</v>
       </c>
@@ -635,7 +653,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>26509</v>
       </c>
@@ -646,7 +664,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>26510</v>
       </c>
@@ -657,7 +675,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>26511</v>
       </c>
@@ -668,7 +686,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>26512</v>
       </c>
@@ -679,7 +697,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>26513</v>
       </c>
@@ -690,7 +708,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>26514</v>
       </c>
@@ -701,7 +719,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>26515</v>
       </c>
@@ -712,7 +730,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>26516</v>
       </c>
@@ -723,7 +741,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>26517</v>
       </c>
@@ -734,7 +752,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>26518</v>
       </c>
@@ -745,7 +763,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>26519</v>
       </c>
@@ -756,7 +774,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>26520</v>
       </c>
@@ -767,7 +785,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>26521</v>
       </c>
@@ -778,7 +796,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>26522</v>
       </c>
@@ -789,7 +807,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>26523</v>
       </c>
@@ -800,7 +818,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>26524</v>
       </c>
@@ -811,7 +829,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>26525</v>
       </c>
@@ -822,7 +840,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>26526</v>
       </c>
@@ -833,7 +851,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>26527</v>
       </c>
@@ -844,7 +862,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>26528</v>
       </c>
@@ -855,7 +873,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>26529</v>
       </c>
@@ -866,7 +884,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>26530</v>
       </c>
@@ -877,7 +895,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>26531</v>
       </c>
@@ -888,7 +906,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>26532</v>
       </c>
@@ -899,7 +917,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>26533</v>
       </c>
@@ -910,7 +928,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>26534</v>
       </c>
@@ -921,7 +939,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>26535</v>
       </c>
@@ -932,7 +950,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>26536</v>
       </c>
@@ -943,7 +961,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>26537</v>
       </c>
@@ -954,7 +972,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>26538</v>
       </c>
@@ -965,7 +983,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>26539</v>
       </c>
@@ -976,7 +994,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>26540</v>
       </c>
@@ -987,7 +1005,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>26541</v>
       </c>
@@ -998,7 +1016,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>26542</v>
       </c>
@@ -1009,7 +1027,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>26543</v>
       </c>
@@ -1020,7 +1038,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>26544</v>
       </c>
@@ -1031,7 +1049,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>26545</v>
       </c>
@@ -1042,7 +1060,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>26546</v>
       </c>
@@ -1053,7 +1071,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>26547</v>
       </c>
@@ -1064,7 +1082,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>26548</v>
       </c>
@@ -1075,7 +1093,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>26549</v>
       </c>
@@ -1086,7 +1104,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
         <v>26550</v>
       </c>
@@ -1097,7 +1115,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <v>26551</v>
       </c>
@@ -1108,7 +1126,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
         <v>26552</v>
       </c>
@@ -1119,7 +1137,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
         <v>26553</v>
       </c>
@@ -1130,7 +1148,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
         <v>26554</v>
       </c>
@@ -1141,7 +1159,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
         <v>26555</v>
       </c>
@@ -1152,7 +1170,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
         <v>26556</v>
       </c>
@@ -1163,7 +1181,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
         <v>26557</v>
       </c>
